--- a/data/人物设定/翠雀媚属性表格.xlsx
+++ b/data/人物设定/翠雀媚属性表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MYGAME\data\人物设定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE6A44B-E306-4CD8-9000-C5A3982CCAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE18612-DE36-495F-BCA9-286607258D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{618F1768-5BD8-489A-94B8-8F0FA4E1AA47}"/>
+    <workbookView xWindow="1440" yWindow="0" windowWidth="21600" windowHeight="11835" xr2:uid="{618F1768-5BD8-489A-94B8-8F0FA4E1AA47}"/>
   </bookViews>
   <sheets>
     <sheet name="人物基本属性" sheetId="1" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>5月12日</t>
   </si>
   <si>
-    <t>药物受试者</t>
-  </si>
-  <si>
     <r>
       <t>智力（表示聪明程度，标准值为100，</t>
     </r>
@@ -978,6 +975,10 @@
   </si>
   <si>
     <t>翠雀 媚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药物受试员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1150,9 +1151,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1160,21 +1176,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1554,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0584BD9E-FC3E-42A2-B47B-D4BFC192C852}">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1572,15 +1573,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1607,7 +1608,7 @@
     </row>
     <row r="3" spans="1:7" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1622,155 +1623,155 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="10">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="6">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="6">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="10">
         <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="6"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="6">
+        <v>13</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="10">
         <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="6">
+        <v>14</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="10">
         <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="6"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="6">
+        <v>15</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="10">
         <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="6"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="6"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G16" s="6"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G17" s="6"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="6"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
@@ -1779,18 +1780,18 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="6"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="6"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
@@ -1799,18 +1800,18 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="6"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="6"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
@@ -1819,18 +1820,18 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="6"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="6"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
@@ -1839,18 +1840,18 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="6"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>18</v>
+      <c r="A26" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="6"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
@@ -1859,18 +1860,18 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="6"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>19</v>
+      <c r="A28" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="6"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
@@ -1879,18 +1880,18 @@
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="6"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="6"/>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
@@ -1899,48 +1900,48 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="6"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
         <v>51</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>52</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>53</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>54</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>55</v>
       </c>
-      <c r="F32" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" s="6"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
         <v>57</v>
       </c>
-      <c r="B33" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="6"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="6"/>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
@@ -1949,25 +1950,25 @@
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="6"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
@@ -1976,22 +1977,22 @@
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="12" t="s">
-        <v>31</v>
+      <c r="G38" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -2001,19 +2002,19 @@
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="12"/>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="12" t="s">
-        <v>38</v>
+      <c r="G40" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -2023,19 +2024,19 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="12"/>
+      <c r="G41" s="6"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="12" t="s">
-        <v>39</v>
+      <c r="G42" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -2045,19 +2046,19 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="12"/>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="12" t="s">
-        <v>40</v>
+      <c r="G44" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -2067,25 +2068,25 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="12"/>
+      <c r="G45" s="6"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
+      <c r="G46" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
@@ -2094,22 +2095,22 @@
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="12" t="s">
-        <v>42</v>
+      <c r="G48" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -2119,18 +2120,18 @@
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="12"/>
+      <c r="G49" s="6"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="6"/>
+      <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
@@ -2139,19 +2140,19 @@
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="6"/>
+      <c r="G51" s="10"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="12" t="s">
-        <v>43</v>
+      <c r="G52" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -2161,18 +2162,18 @@
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="12"/>
+      <c r="G53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="14"/>
+      <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
@@ -2181,57 +2182,57 @@
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
-      <c r="G55" s="14"/>
+      <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
       <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
+      <c r="A60" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
       <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -2263,6 +2264,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A12:F13"/>
+    <mergeCell ref="A14:F15"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A4:F5"/>
+    <mergeCell ref="A6:F7"/>
+    <mergeCell ref="A8:F9"/>
+    <mergeCell ref="A10:F11"/>
+    <mergeCell ref="A30:F31"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="A18:F19"/>
+    <mergeCell ref="A20:F21"/>
+    <mergeCell ref="A22:F23"/>
+    <mergeCell ref="A24:F25"/>
+    <mergeCell ref="A26:F27"/>
+    <mergeCell ref="A28:F29"/>
+    <mergeCell ref="A50:F51"/>
+    <mergeCell ref="A52:F53"/>
+    <mergeCell ref="A34:F35"/>
+    <mergeCell ref="A36:F37"/>
+    <mergeCell ref="A38:F39"/>
+    <mergeCell ref="A40:F41"/>
+    <mergeCell ref="A42:F43"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G41"/>
     <mergeCell ref="A56:F57"/>
     <mergeCell ref="A60:F60"/>
     <mergeCell ref="H36:J37"/>
@@ -2279,46 +2320,6 @@
     <mergeCell ref="A44:F45"/>
     <mergeCell ref="A46:F47"/>
     <mergeCell ref="A48:F49"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="A50:F51"/>
-    <mergeCell ref="A52:F53"/>
-    <mergeCell ref="A34:F35"/>
-    <mergeCell ref="A36:F37"/>
-    <mergeCell ref="A38:F39"/>
-    <mergeCell ref="A40:F41"/>
-    <mergeCell ref="A42:F43"/>
-    <mergeCell ref="A30:F31"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="A18:F19"/>
-    <mergeCell ref="A20:F21"/>
-    <mergeCell ref="A22:F23"/>
-    <mergeCell ref="A24:F25"/>
-    <mergeCell ref="A26:F27"/>
-    <mergeCell ref="A28:F29"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:F13"/>
-    <mergeCell ref="A14:F15"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A4:F5"/>
-    <mergeCell ref="A6:F7"/>
-    <mergeCell ref="A8:F9"/>
-    <mergeCell ref="A10:F11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2340,13 +2341,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="15" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="15" t="s">
-        <v>24</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
@@ -2359,9 +2360,9 @@
       <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
@@ -2374,9 +2375,9 @@
       <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -2389,9 +2390,9 @@
       <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -2404,9 +2405,9 @@
       <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -2419,9 +2420,9 @@
       <c r="M5" s="15"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -2434,9 +2435,9 @@
       <c r="M6" s="15"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
@@ -2449,9 +2450,9 @@
       <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -2464,9 +2465,9 @@
       <c r="M8" s="15"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -2479,9 +2480,9 @@
       <c r="M9" s="15"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>

--- a/data/人物设定/翠雀媚属性表格.xlsx
+++ b/data/人物设定/翠雀媚属性表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MYGAME\data\人物设定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE18612-DE36-495F-BCA9-286607258D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3556E8F2-E4AE-40F4-8996-9873396CBC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="0" windowWidth="21600" windowHeight="11835" xr2:uid="{618F1768-5BD8-489A-94B8-8F0FA4E1AA47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{618F1768-5BD8-489A-94B8-8F0FA4E1AA47}"/>
   </bookViews>
   <sheets>
     <sheet name="人物基本属性" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>此表更新日期为2023/2/17/14:00 作者:OvO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -978,7 +978,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>药物受试员</t>
+    <t>天才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药物试受员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1151,24 +1155,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1176,6 +1165,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1555,7 +1559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0584BD9E-FC3E-42A2-B47B-D4BFC192C852}">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1573,15 +1577,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1623,144 +1627,144 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="10">
-        <v>125</v>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="6">
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="10"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="10">
-        <v>131</v>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="6">
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="10"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="10">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="6">
         <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="10"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="10">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="6">
         <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="10"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="10">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="6">
         <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="10"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="10"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="10"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G16" s="10"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G17" s="10"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
@@ -1771,7 +1775,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="10"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
@@ -1780,7 +1784,7 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="10"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
@@ -1791,7 +1795,7 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="10"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
@@ -1800,7 +1804,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="10"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
@@ -1811,7 +1815,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="10"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
@@ -1820,7 +1824,7 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="10"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
@@ -1831,7 +1835,7 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="10"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
@@ -1840,10 +1844,10 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="10"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="7"/>
@@ -1851,7 +1855,7 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="10"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
@@ -1860,10 +1864,10 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="10"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B28" s="7"/>
@@ -1871,7 +1875,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="10"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
@@ -1880,7 +1884,7 @@
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="10"/>
+      <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
@@ -1891,7 +1895,7 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="10"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
@@ -1900,7 +1904,7 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="10"/>
+      <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -1921,7 +1925,7 @@
       <c r="F32" t="s">
         <v>55</v>
       </c>
-      <c r="G32" s="10"/>
+      <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -1930,7 +1934,10 @@
       <c r="B33" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="10"/>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
@@ -1941,7 +1948,7 @@
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="10"/>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
@@ -1950,7 +1957,7 @@
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="10"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
@@ -1961,14 +1968,14 @@
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
@@ -1977,10 +1984,10 @@
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
@@ -1991,7 +1998,7 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2002,7 +2009,7 @@
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="6"/>
+      <c r="G39" s="12"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
@@ -2013,7 +2020,7 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="12" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2024,7 +2031,7 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="6"/>
+      <c r="G41" s="12"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
@@ -2035,7 +2042,7 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="12" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2046,7 +2053,7 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="6"/>
+      <c r="G43" s="12"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
@@ -2057,7 +2064,7 @@
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2068,7 +2075,7 @@
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="6"/>
+      <c r="G45" s="12"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
@@ -2079,14 +2086,14 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="H46" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
@@ -2095,10 +2102,10 @@
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
@@ -2109,7 +2116,7 @@
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="12" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2120,7 +2127,7 @@
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="6"/>
+      <c r="G49" s="12"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
@@ -2131,7 +2138,7 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="10"/>
+      <c r="G50" s="6"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
@@ -2140,7 +2147,7 @@
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="10"/>
+      <c r="G51" s="6"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
@@ -2151,7 +2158,7 @@
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="6" t="s">
+      <c r="G52" s="12" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2162,7 +2169,7 @@
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="6"/>
+      <c r="G53" s="12"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
@@ -2173,7 +2180,7 @@
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="11"/>
+      <c r="G54" s="14"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
@@ -2182,57 +2189,57 @@
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
-      <c r="G55" s="11"/>
+      <c r="G55" s="14"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
       <c r="G57" s="4"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
       <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
       <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -2264,46 +2271,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:F13"/>
-    <mergeCell ref="A14:F15"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A4:F5"/>
-    <mergeCell ref="A6:F7"/>
-    <mergeCell ref="A8:F9"/>
-    <mergeCell ref="A10:F11"/>
-    <mergeCell ref="A30:F31"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="A18:F19"/>
-    <mergeCell ref="A20:F21"/>
-    <mergeCell ref="A22:F23"/>
-    <mergeCell ref="A24:F25"/>
-    <mergeCell ref="A26:F27"/>
-    <mergeCell ref="A28:F29"/>
-    <mergeCell ref="A50:F51"/>
-    <mergeCell ref="A52:F53"/>
-    <mergeCell ref="A34:F35"/>
-    <mergeCell ref="A36:F37"/>
-    <mergeCell ref="A38:F39"/>
-    <mergeCell ref="A40:F41"/>
-    <mergeCell ref="A42:F43"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G40:G41"/>
     <mergeCell ref="A56:F57"/>
     <mergeCell ref="A60:F60"/>
     <mergeCell ref="H36:J37"/>
@@ -2320,6 +2287,46 @@
     <mergeCell ref="A44:F45"/>
     <mergeCell ref="A46:F47"/>
     <mergeCell ref="A48:F49"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="A50:F51"/>
+    <mergeCell ref="A52:F53"/>
+    <mergeCell ref="A34:F35"/>
+    <mergeCell ref="A36:F37"/>
+    <mergeCell ref="A38:F39"/>
+    <mergeCell ref="A40:F41"/>
+    <mergeCell ref="A42:F43"/>
+    <mergeCell ref="A30:F31"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="A18:F19"/>
+    <mergeCell ref="A20:F21"/>
+    <mergeCell ref="A22:F23"/>
+    <mergeCell ref="A24:F25"/>
+    <mergeCell ref="A26:F27"/>
+    <mergeCell ref="A28:F29"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A12:F13"/>
+    <mergeCell ref="A14:F15"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A4:F5"/>
+    <mergeCell ref="A6:F7"/>
+    <mergeCell ref="A8:F9"/>
+    <mergeCell ref="A10:F11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2341,11 +2348,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
       <c r="D1" s="15" t="s">
         <v>23</v>
       </c>
@@ -2360,9 +2367,9 @@
       <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
@@ -2375,9 +2382,9 @@
       <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
@@ -2390,9 +2397,9 @@
       <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -2405,9 +2412,9 @@
       <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -2420,9 +2427,9 @@
       <c r="M5" s="15"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -2435,9 +2442,9 @@
       <c r="M6" s="15"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
@@ -2450,9 +2457,9 @@
       <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -2465,9 +2472,9 @@
       <c r="M8" s="15"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -2480,9 +2487,9 @@
       <c r="M9" s="15"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>

--- a/data/人物设定/翠雀媚属性表格.xlsx
+++ b/data/人物设定/翠雀媚属性表格.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SiSan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MYGAME\data\人物设定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{828A2308-1DFF-4482-9C01-3E0D9CE89A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BEBFA4-B398-4BA4-BEFF-586CA1F5E925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{618F1768-5BD8-489A-94B8-8F0FA4E1AA47}"/>
   </bookViews>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
   <si>
     <t>昵称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -676,20 +676,29 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -700,17 +709,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1185,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0584BD9E-FC3E-42A2-B47B-D4BFC192C852}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1203,15 +1203,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="2" t="s">
@@ -1258,508 +1258,508 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
         <v>100</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="7">
         <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7">
         <v>100</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="7">
         <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="13"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7">
         <v>100</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="7">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="8"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7">
         <v>100</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="7">
         <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="8"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7">
         <v>100</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="7">
         <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="8"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="6"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="6"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="G17" s="6"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="6" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="6"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="6"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="6"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="6"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="6"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="6"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="6"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="6"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="6"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="6"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="6"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="G32" s="6"/>
+      <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="G33" s="6"/>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="11">
         <v>1</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="7">
         <v>0</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="10"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="10">
         <v>2</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="10">
         <v>0</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="16" t="s">
+      <c r="F36" s="10"/>
+      <c r="G36" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="7">
         <v>131</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J36" s="6"/>
+      <c r="J36" s="7"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="10"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="10">
         <v>3</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="7">
         <v>0</v>
       </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6" t="s">
+      <c r="F38" s="7"/>
+      <c r="G38" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="7">
         <v>17</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I38" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="7">
         <v>9</v>
       </c>
-      <c r="K38" s="6" t="s">
+      <c r="K38" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="L38" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="10"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="10">
         <v>4</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="10">
         <v>0</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="6" t="s">
+      <c r="F40" s="10"/>
+      <c r="G40" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="7">
         <v>10</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="7">
         <v>10</v>
       </c>
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="10"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="10">
         <v>0</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="7">
         <v>0</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6" t="s">
+      <c r="F42" s="7"/>
+      <c r="G42" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="7">
         <v>3</v>
       </c>
       <c r="I42" s="1"/>
@@ -1767,39 +1767,39 @@
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="10"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="10">
         <v>-1</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="10">
         <v>0</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="6" t="s">
+      <c r="F44" s="10"/>
+      <c r="G44" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="7">
         <v>321</v>
       </c>
       <c r="I44" s="1"/>
@@ -1807,89 +1807,89 @@
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="10"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="10">
         <v>2</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="7">
         <v>0</v>
       </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="16" t="s">
+      <c r="F46" s="7"/>
+      <c r="G46" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="7">
         <v>90</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="7">
         <v>17</v>
       </c>
-      <c r="K46" s="6" t="s">
+      <c r="K46" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L46" s="6" t="s">
+      <c r="L46" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="10"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="10">
         <v>-1</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D48" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="10">
         <v>0</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="6" t="s">
+      <c r="F48" s="10"/>
+      <c r="G48" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="7">
         <v>4</v>
       </c>
       <c r="I48" s="1"/>
@@ -1897,39 +1897,39 @@
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="10"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="10">
         <v>-2</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="7">
         <v>0</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6" t="s">
+      <c r="F50" s="7"/>
+      <c r="G50" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="7">
         <v>9</v>
       </c>
       <c r="I50" s="1"/>
@@ -1937,133 +1937,137 @@
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="10"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="10">
         <v>1</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="10">
         <v>0</v>
       </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="6" t="s">
+      <c r="F52" s="10"/>
+      <c r="G52" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="7">
         <v>500</v>
       </c>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="I52" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J52" s="7">
+        <v>15</v>
+      </c>
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="10"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
       <c r="K53" s="1"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6">
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7">
         <v>66</v>
       </c>
-      <c r="F56" s="6"/>
+      <c r="F56" s="7"/>
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
       <c r="G57" s="4"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8">
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11">
         <v>12</v>
       </c>
-      <c r="F58" s="8"/>
+      <c r="F58" s="11"/>
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
       <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
       <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:11">
@@ -2094,7 +2098,113 @@
       <c r="G69" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="128">
+  <mergeCells count="130">
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:D57"/>
+    <mergeCell ref="E56:F57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:D59"/>
+    <mergeCell ref="E58:F59"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:F29"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:F51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:F53"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:F49"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A14:F15"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:E13"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A30:F31"/>
+    <mergeCell ref="G18:G29"/>
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="G38:G39"/>
     <mergeCell ref="G40:G41"/>
@@ -2119,110 +2229,6 @@
     <mergeCell ref="E40:F41"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="B50:B51"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A30:F31"/>
-    <mergeCell ref="G18:G29"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A14:F15"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B4:E5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:E13"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="B6:E7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B8:E9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:F53"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:F49"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:D57"/>
-    <mergeCell ref="E56:F57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:D59"/>
-    <mergeCell ref="E58:F59"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:F29"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:F51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J46:J47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2271,554 +2277,554 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="18" t="s">

--- a/data/人物设定/翠雀媚属性表格.xlsx
+++ b/data/人物设定/翠雀媚属性表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MYGAME\data\人物设定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BEBFA4-B398-4BA4-BEFF-586CA1F5E925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5503DBA-CAA4-47C2-BE84-1E76AC709E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{618F1768-5BD8-489A-94B8-8F0FA4E1AA47}"/>
   </bookViews>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>昵称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -422,10 +422,6 @@
   </si>
   <si>
     <t>容积（默认5ml）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直径（9~18mm）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -534,6 +530,14 @@
   </si>
   <si>
     <t>我？翠雀媚，在最终生命中负责试药，各种探索快·感的禁药哟。看到这套护士服了吗？也是特·别定做的哦！哼哼哼，这么快就压制不住性欲了吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直径（9-18mm）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大可插入直径(mm)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,29 +680,20 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -709,8 +704,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1183,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0584BD9E-FC3E-42A2-B47B-D4BFC192C852}">
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1203,15 +1207,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="A1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="2" t="s">
@@ -1238,13 +1242,13 @@
     </row>
     <row r="3" spans="1:7" ht="41.45" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="D3" s="5">
         <v>45058</v>
@@ -1253,833 +1257,849 @@
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
+        <v>100</v>
+      </c>
+      <c r="G4" s="6">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="8"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
+        <v>100</v>
+      </c>
+      <c r="G6" s="6">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="13"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
+        <v>100</v>
+      </c>
+      <c r="G8" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
+        <v>100</v>
+      </c>
+      <c r="G10" s="6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
+        <v>100</v>
+      </c>
+      <c r="G12" s="6">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="G16" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="11" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="8">
+        <v>1</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="10"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="9">
+        <v>2</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="6">
+        <v>131</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36" s="6"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="10"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="9">
+        <v>3</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" s="6">
+        <v>17</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J38" s="6">
+        <v>9</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="10"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="9">
+        <v>4</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="9">
+        <v>0</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" s="6">
         <v>10</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7">
-        <v>100</v>
-      </c>
-      <c r="G4" s="7">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="11"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7">
-        <v>100</v>
-      </c>
-      <c r="G6" s="7">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="16"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7">
-        <v>100</v>
-      </c>
-      <c r="G8" s="7">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="11"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="I40" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J40" s="6">
+        <v>10</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6">
         <v>17</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7">
-        <v>100</v>
-      </c>
-      <c r="G10" s="7">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="11"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7">
-        <v>100</v>
-      </c>
-      <c r="G12" s="7">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="11"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="G16" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="11"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="11"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="11">
-        <v>1</v>
-      </c>
-      <c r="C34" s="11" t="s">
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="10"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="9">
+        <v>0</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E42" s="6">
         <v>0</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="12"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="10">
-        <v>2</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="10">
-        <v>0</v>
-      </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H36" s="7">
-        <v>131</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J36" s="7"/>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="12"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="10">
-        <v>3</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="7">
-        <v>0</v>
-      </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H38" s="7">
-        <v>17</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J38" s="7">
-        <v>9</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="12"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="10">
-        <v>4</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="10">
-        <v>0</v>
-      </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H40" s="7">
-        <v>10</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J40" s="7">
-        <v>10</v>
-      </c>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="12"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="10">
-        <v>0</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="7">
-        <v>0</v>
-      </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7" t="s">
+      <c r="F42" s="6"/>
+      <c r="G42" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="6">
         <v>3</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="12"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
+    <row r="43" spans="1:14">
+      <c r="A43" s="10"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="12" t="s">
+    <row r="44" spans="1:14">
+      <c r="A44" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="9">
         <v>-1</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="9">
         <v>0</v>
       </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="7" t="s">
+      <c r="F44" s="9"/>
+      <c r="G44" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="6">
         <v>321</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="12"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+    <row r="45" spans="1:14">
+      <c r="A45" s="10"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="12" t="s">
+    <row r="46" spans="1:14">
+      <c r="A46" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="9">
         <v>2</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="6">
         <v>0</v>
       </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H46" s="7">
+      <c r="F46" s="6"/>
+      <c r="G46" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" s="6">
         <v>90</v>
       </c>
-      <c r="I46" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="J46" s="7">
+      <c r="I46" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J46" s="6">
         <v>17</v>
       </c>
-      <c r="K46" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="12"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="12" t="s">
+      <c r="K46" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="10"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="9">
         <v>-1</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="9">
         <v>0</v>
       </c>
-      <c r="F48" s="10"/>
-      <c r="G48" s="7" t="s">
+      <c r="F48" s="9"/>
+      <c r="G48" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="6">
         <v>4</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="12"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
+    <row r="49" spans="1:14">
+      <c r="A49" s="10"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="12" t="s">
+    <row r="50" spans="1:14">
+      <c r="A50" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="9">
         <v>-2</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="6">
         <v>0</v>
       </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H50" s="7">
-        <v>9</v>
-      </c>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="12"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
+    <row r="51" spans="1:14">
+      <c r="A51" s="10"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="12" t="s">
+    <row r="52" spans="1:14">
+      <c r="A52" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="9">
         <v>1</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="9">
         <v>0</v>
       </c>
-      <c r="F52" s="10"/>
-      <c r="G52" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H52" s="7">
+      <c r="F52" s="9"/>
+      <c r="G52" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H52" s="6">
         <v>500</v>
       </c>
-      <c r="I52" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J52" s="7">
-        <v>15</v>
-      </c>
-      <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="12"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="9" t="s">
+      <c r="I52" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J52" s="6">
+        <v>9</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="10"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="7" t="s">
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7">
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6">
         <v>66</v>
       </c>
-      <c r="F56" s="7"/>
+      <c r="F56" s="6"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
+    <row r="57" spans="1:14">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="11" t="s">
+    <row r="58" spans="1:14">
+      <c r="A58" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11">
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8">
         <v>12</v>
       </c>
-      <c r="F58" s="11"/>
+      <c r="F58" s="8"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
+    <row r="59" spans="1:14">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="8" t="s">
+    <row r="60" spans="1:14">
+      <c r="A60" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:14">
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:14">
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:14">
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:14">
       <c r="G64" s="4"/>
     </row>
     <row r="65" spans="7:7">
@@ -2098,26 +2118,97 @@
       <c r="G69" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="130">
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
+  <mergeCells count="134">
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="K40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A54:F55"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A30:F31"/>
+    <mergeCell ref="G18:G29"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A14:F15"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:E13"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:F53"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:F49"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:F45"/>
     <mergeCell ref="J36:J37"/>
     <mergeCell ref="H36:H37"/>
     <mergeCell ref="A56:A57"/>
@@ -2142,93 +2233,26 @@
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="E50:F51"/>
     <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:F53"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:F49"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A14:F15"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B4:E5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:E13"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="B6:E7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B8:E9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A30:F31"/>
-    <mergeCell ref="G18:G29"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A54:F55"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:M53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2277,558 +2301,558 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="A1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A30" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
+      <c r="A30" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -2985,7 +3009,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>37</v>
@@ -2999,7 +3023,7 @@
     </row>
     <row r="2" spans="1:7" hidden="1">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>38</v>
@@ -3013,7 +3037,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>39</v>

--- a/data/人物设定/翠雀媚属性表格.xlsx
+++ b/data/人物设定/翠雀媚属性表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MYGAME\data\人物设定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5503DBA-CAA4-47C2-BE84-1E76AC709E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956B7AC2-05AC-458E-8E49-3465B6C2B67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{618F1768-5BD8-489A-94B8-8F0FA4E1AA47}"/>
   </bookViews>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
   <si>
     <t>昵称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -406,10 +406,6 @@
   </si>
   <si>
     <t>长度（10~40mm）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直径（10~40mm）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -683,17 +679,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -704,17 +709,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1187,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0584BD9E-FC3E-42A2-B47B-D4BFC192C852}">
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40:M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1208,7 +1204,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1242,13 +1238,13 @@
     </row>
     <row r="3" spans="1:7" ht="41.45" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="D3" s="5">
         <v>45058</v>
@@ -1257,12 +1253,12 @@
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1279,7 +1275,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="8"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1288,7 +1284,7 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1305,7 +1301,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="13"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1314,7 +1310,7 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1331,7 +1327,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="8"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1340,7 +1336,7 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1357,7 +1353,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="8"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1366,7 +1362,7 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1383,7 +1379,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="8"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -1392,201 +1388,201 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="A14" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7">
       <c r="G16" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="6"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="B28" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:16">
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="10" t="s">
+    <row r="34" spans="1:16">
+      <c r="A34" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="11">
         <v>1</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="6" t="s">
@@ -1598,34 +1594,34 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="10"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
+    <row r="35" spans="1:16">
+      <c r="A35" s="12"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="10"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:16">
+      <c r="A36" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="10">
         <v>2</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="10">
         <v>0</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="16" t="s">
-        <v>65</v>
+      <c r="F36" s="10"/>
+      <c r="G36" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="H36" s="6">
         <v>131</v>
@@ -1636,27 +1632,27 @@
       <c r="J36" s="6"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="10"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
+    <row r="37" spans="1:16">
+      <c r="A37" s="12"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="10" t="s">
+    <row r="38" spans="1:16">
+      <c r="A38" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="10">
         <v>3</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="6" t="s">
@@ -1682,13 +1678,13 @@
         <v>57</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="10"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="12"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -1699,51 +1695,43 @@
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
     </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="10" t="s">
+    <row r="40" spans="1:16">
+      <c r="A40" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="10">
         <v>4</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="10">
         <v>0</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="10"/>
       <c r="G40" s="6" t="s">
         <v>59</v>
       </c>
       <c r="H40" s="6">
         <v>10</v>
       </c>
-      <c r="I40" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J40" s="6">
-        <v>10</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>91</v>
-      </c>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
-      <c r="N40" s="6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="10"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
+      <c r="N40" s="6"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="12"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -1753,14 +1741,14 @@
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
     </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="10" t="s">
+    <row r="42" spans="1:16">
+      <c r="A42" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="10">
         <v>0</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="6" t="s">
@@ -1771,47 +1759,51 @@
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H42" s="6">
         <v>3</v>
       </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="I42" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J42" s="6">
+        <v>4</v>
+      </c>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="10"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
+    <row r="43" spans="1:16">
+      <c r="A43" s="12"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="10" t="s">
+    <row r="44" spans="1:16">
+      <c r="A44" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="10">
         <v>-1</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="10">
         <v>0</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="10"/>
       <c r="G44" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H44" s="6">
         <v>321</v>
@@ -1820,27 +1812,27 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="10"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
+    <row r="45" spans="1:16">
+      <c r="A45" s="12"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="10" t="s">
+    <row r="46" spans="1:16">
+      <c r="A46" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="10">
         <v>2</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="6" t="s">
@@ -1850,29 +1842,37 @@
         <v>0</v>
       </c>
       <c r="F46" s="6"/>
-      <c r="G46" s="16" t="s">
-        <v>68</v>
+      <c r="G46" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="H46" s="6">
         <v>90</v>
       </c>
-      <c r="I46" s="7" t="s">
-        <v>67</v>
+      <c r="I46" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="J46" s="6">
         <v>17</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="10"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="12"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -1882,26 +1882,30 @@
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="10" t="s">
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="10">
         <v>-1</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="10">
         <v>0</v>
       </c>
-      <c r="F48" s="9"/>
+      <c r="F48" s="10"/>
       <c r="G48" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H48" s="6">
         <v>4</v>
@@ -1911,12 +1915,12 @@
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="10"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="1"/>
@@ -1924,13 +1928,13 @@
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="10">
         <v>-2</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="6" t="s">
@@ -1947,9 +1951,9 @@
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="10"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -1960,36 +1964,36 @@
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="10">
         <v>1</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="10">
         <v>0</v>
       </c>
-      <c r="F52" s="9"/>
+      <c r="F52" s="10"/>
       <c r="G52" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H52" s="6">
         <v>500</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J52" s="6">
         <v>9</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
@@ -1998,12 +2002,12 @@
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="10"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
@@ -2014,22 +2018,22 @@
       <c r="N53" s="6"/>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="6" t="s">
@@ -2056,38 +2060,38 @@
       <c r="G57" s="4"/>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8">
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11">
         <v>12</v>
       </c>
-      <c r="F58" s="8"/>
+      <c r="F58" s="11"/>
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
       <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:14">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
       <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:14">
@@ -2118,7 +2122,121 @@
       <c r="G69" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="134">
+  <mergeCells count="138">
+    <mergeCell ref="P46:P47"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:M53"/>
+    <mergeCell ref="M46:O47"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:D57"/>
+    <mergeCell ref="E56:F57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:D59"/>
+    <mergeCell ref="E58:F59"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:F29"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:F51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:F53"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:F49"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A14:F15"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:E13"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A30:F31"/>
+    <mergeCell ref="G18:G29"/>
     <mergeCell ref="N52:N53"/>
     <mergeCell ref="K40:M41"/>
     <mergeCell ref="N40:N41"/>
@@ -2143,116 +2261,6 @@
     <mergeCell ref="E38:F39"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A30:F31"/>
-    <mergeCell ref="G18:G29"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A14:F15"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B4:E5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:E13"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="B6:E7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B8:E9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:F53"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:F49"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:D57"/>
-    <mergeCell ref="E56:F57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:D59"/>
-    <mergeCell ref="E58:F59"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:F29"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:F51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:M53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2301,8 +2309,8 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="7" t="s">
-        <v>75</v>
+      <c r="A1" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2709,150 +2717,150 @@
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A30" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
+      <c r="A30" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -3009,7 +3017,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>37</v>
@@ -3023,7 +3031,7 @@
     </row>
     <row r="2" spans="1:7" hidden="1">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>38</v>
@@ -3037,7 +3045,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>39</v>

--- a/data/人物设定/翠雀媚属性表格.xlsx
+++ b/data/人物设定/翠雀媚属性表格.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MYGAME\data\人物设定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956B7AC2-05AC-458E-8E49-3465B6C2B67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B930EA02-7A35-4FA9-8E92-488B961852CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{618F1768-5BD8-489A-94B8-8F0FA4E1AA47}"/>
   </bookViews>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="93">
   <si>
     <t>昵称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -393,10 +393,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>乳孔直径（8~15mm）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>颜色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,10 +402,6 @@
   </si>
   <si>
     <t>长度（10~40mm）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直径（3~9mm）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -434,16 +426,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 直径
-(萝莉10mm,成年20~30mm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长度
-(萝莉40~70mm,成人70~120mm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通才</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -533,7 +515,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最大可插入直径(mm)</t>
+    <t>深度
+(萝莉40~70mm,成人70~120mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大可插入直径（3~9mm）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直径（10-40mm）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>乳孔直径(最大可插入直径)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 最大可插入直径(mm)
+(萝莉10mm,成年20~30mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大可插入直径（9-18mm）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,26 +686,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -709,8 +707,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1183,10 +1190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0584BD9E-FC3E-42A2-B47B-D4BFC192C852}">
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40:M41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1200,11 +1207,12 @@
     <col min="7" max="7" width="55.75" customWidth="1"/>
     <col min="8" max="8" width="8.875" customWidth="1"/>
     <col min="9" max="9" width="26.75" customWidth="1"/>
+    <col min="11" max="11" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1238,13 +1246,13 @@
     </row>
     <row r="3" spans="1:7" ht="41.45" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D3" s="5">
         <v>45058</v>
@@ -1253,12 +1261,12 @@
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1275,7 +1283,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="11"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1284,7 +1292,7 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1301,7 +1309,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="16"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1310,7 +1318,7 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1327,7 +1335,7 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="11"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1336,7 +1344,7 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1353,7 +1361,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="11"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1362,7 +1370,7 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1379,7 +1387,7 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="11"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -1388,201 +1396,201 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="A14" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7">
       <c r="G16" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="6" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="B20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+      <c r="B22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="B24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="B26" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="11"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+    <row r="27" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="B28" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="11"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:14">
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:14">
+      <c r="A34" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="8">
         <v>1</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="6" t="s">
@@ -1594,65 +1602,67 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="12"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="10"/>
+    <row r="35" spans="1:14">
+      <c r="A35" s="10"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:14">
+      <c r="A36" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="9">
         <v>2</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="9">
         <v>0</v>
       </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="7" t="s">
-        <v>64</v>
+      <c r="F36" s="9"/>
+      <c r="G36" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="H36" s="6">
         <v>131</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J36" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="12"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
+    <row r="37" spans="1:14">
+      <c r="A37" s="10"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="12" t="s">
+    <row r="38" spans="1:14">
+      <c r="A38" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="9">
         <v>3</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="6" t="s">
@@ -1669,22 +1679,28 @@
         <v>17</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="J38" s="6">
         <v>9</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="12"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
+        <v>90</v>
+      </c>
+      <c r="L38" s="6">
+        <v>10</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="10"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -1694,61 +1710,59 @@
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="12" t="s">
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="9">
         <v>4</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="9">
         <v>0</v>
       </c>
-      <c r="F40" s="10"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H40" s="6">
         <v>10</v>
       </c>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="12"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
+      <c r="I40" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J40" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="10"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" s="12" t="s">
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="9">
         <v>0</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D42" s="6" t="s">
@@ -1759,51 +1773,43 @@
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="H42" s="6">
         <v>3</v>
       </c>
-      <c r="I42" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J42" s="6">
-        <v>4</v>
-      </c>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:16">
-      <c r="A43" s="12"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
+    <row r="43" spans="1:14">
+      <c r="A43" s="10"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:16">
-      <c r="A44" s="12" t="s">
+    <row r="44" spans="1:14">
+      <c r="A44" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="9">
         <v>-1</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="9">
         <v>0</v>
       </c>
-      <c r="F44" s="10"/>
+      <c r="F44" s="9"/>
       <c r="G44" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H44" s="6">
         <v>321</v>
@@ -1812,27 +1818,27 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:16">
-      <c r="A45" s="12"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
+    <row r="45" spans="1:14">
+      <c r="A45" s="10"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:16">
-      <c r="A46" s="12" t="s">
+    <row r="46" spans="1:14">
+      <c r="A46" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="9">
         <v>2</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D46" s="6" t="s">
@@ -1842,37 +1848,29 @@
         <v>0</v>
       </c>
       <c r="F46" s="6"/>
-      <c r="G46" s="7" t="s">
-        <v>67</v>
+      <c r="G46" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="H46" s="6">
         <v>90</v>
       </c>
-      <c r="I46" s="17" t="s">
-        <v>66</v>
+      <c r="I46" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="J46" s="6">
         <v>17</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
-      <c r="A47" s="12"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="10"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -1882,30 +1880,26 @@
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-    </row>
-    <row r="48" spans="1:16">
-      <c r="A48" s="12" t="s">
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="9">
         <v>-1</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="9">
         <v>0</v>
       </c>
-      <c r="F48" s="10"/>
+      <c r="F48" s="9"/>
       <c r="G48" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H48" s="6">
         <v>4</v>
@@ -1914,27 +1908,27 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="12"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
+    <row r="49" spans="1:11">
+      <c r="A49" s="10"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="12" t="s">
+    <row r="50" spans="1:11">
+      <c r="A50" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="9">
         <v>-2</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D50" s="6" t="s">
@@ -1950,10 +1944,10 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="12"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
+    <row r="51" spans="1:11">
+      <c r="A51" s="10"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -1963,79 +1957,67 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="12" t="s">
+    <row r="52" spans="1:11">
+      <c r="A52" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="9">
         <v>1</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="9">
         <v>0</v>
       </c>
-      <c r="F52" s="10"/>
+      <c r="F52" s="9"/>
       <c r="G52" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H52" s="6">
         <v>500</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J52" s="6">
         <v>9</v>
       </c>
-      <c r="K52" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="12"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="10"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="9" t="s">
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-    </row>
-    <row r="56" spans="1:14">
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="6" t="s">
         <v>49</v>
       </c>
@@ -2050,7 +2032,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:11">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -2059,51 +2041,51 @@
       <c r="F57" s="6"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="11" t="s">
+    <row r="58" spans="1:11">
+      <c r="A58" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11">
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8">
         <v>12</v>
       </c>
-      <c r="F58" s="11"/>
+      <c r="F58" s="8"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:14">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
+    <row r="59" spans="1:11">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="8" t="s">
+    <row r="60" spans="1:11">
+      <c r="A60" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:11">
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:11">
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:11">
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:11">
       <c r="G64" s="4"/>
     </row>
     <row r="65" spans="7:7">
@@ -2122,70 +2104,20 @@
       <c r="G69" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="138">
-    <mergeCell ref="P46:P47"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:M53"/>
-    <mergeCell ref="M46:O47"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:D57"/>
-    <mergeCell ref="E56:F57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:D59"/>
-    <mergeCell ref="E58:F59"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:F21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:F23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:F27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:F29"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:F51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:F53"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:F49"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:F45"/>
+  <mergeCells count="132">
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A54:F55"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C38:C39"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C50:C51"/>
@@ -2195,11 +2127,34 @@
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B48:B49"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A30:F31"/>
+    <mergeCell ref="G18:G29"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="C38:C39"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:F41"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A14:F15"/>
     <mergeCell ref="G4:G5"/>
@@ -2223,44 +2178,65 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B10:E11"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A30:F31"/>
-    <mergeCell ref="G18:G29"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="K40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A54:F55"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:F39"/>
     <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:F53"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:F49"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:D57"/>
+    <mergeCell ref="E56:F57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:D59"/>
+    <mergeCell ref="E58:F59"/>
+    <mergeCell ref="B18:F19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:F21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:F23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:F25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:F27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:F29"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:F51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2309,8 +2285,8 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="17" t="s">
-        <v>74</v>
+      <c r="A1" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2717,150 +2693,150 @@
       <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A30" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
+      <c r="A30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -3017,7 +2993,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>37</v>
@@ -3031,7 +3007,7 @@
     </row>
     <row r="2" spans="1:7" hidden="1">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>38</v>
@@ -3045,7 +3021,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>39</v>
